--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbp/Local/echidna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF77DB-2580-7A49-84A7-DEE6E940CAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCAEC3E-FCB2-664E-8D7F-8636D96922A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t>ORDER</t>
   </si>
@@ -58,24 +58,69 @@
     <t>A</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>DOE</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>PSA mucoid</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>JONES</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>SICU</t>
+  </si>
+  <si>
+    <t>respiratory</t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
     <t>SMITH</t>
   </si>
   <si>
     <t>JANE</t>
   </si>
   <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>trach asp</t>
+  </si>
+  <si>
     <t>&lt;=0.05</t>
   </si>
   <si>
@@ -85,31 +130,85 @@
     <t>&gt;256</t>
   </si>
   <si>
+    <t>10E</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>&lt;=0.025</t>
+  </si>
+  <si>
+    <t>endotrach</t>
+  </si>
+  <si>
     <t>JILL</t>
   </si>
   <si>
     <t>BABY</t>
   </si>
   <si>
-    <t>&lt;=0.025</t>
-  </si>
-  <si>
-    <t>DOE</t>
-  </si>
-  <si>
-    <t>JOHN</t>
-  </si>
-  <si>
-    <t>JONES</t>
-  </si>
-  <si>
-    <t>BOB</t>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>NEESOONS</t>
+  </si>
+  <si>
+    <t>LIAM</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>CF resp</t>
+  </si>
+  <si>
+    <t>&lt;=0.0125</t>
+  </si>
+  <si>
+    <t>RHETT</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>&gt;64</t>
+  </si>
+  <si>
+    <t>HEMSWORTH</t>
+  </si>
+  <si>
+    <t>CHRISSY</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>bile</t>
+  </si>
+  <si>
+    <t>LIAMS</t>
+  </si>
+  <si>
+    <t>drainage</t>
+  </si>
+  <si>
+    <t>drainge</t>
+  </si>
+  <si>
+    <t>&gt;=256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,11 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,27 +566,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -554,14 +652,35 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -577,36 +696,66 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="O4">
         <v>2</v>
       </c>
     </row>
@@ -615,24 +764,42 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43954</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>64</v>
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -643,39 +810,72 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" s="2">
+        <v>43954</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44189</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -684,24 +884,36 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44189</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -710,13 +922,31 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>3</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -724,119 +954,479 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44416</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44416</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44479</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="L12">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
+      <c r="E13" s="2">
+        <v>44482</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44384</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
       </c>
       <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
+      <c r="E15" s="2">
+        <v>44384</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44625</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44625</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44625</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
         <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44721</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44594</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44562</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -488,7 +488,7 @@
         <v>44583.72480324074</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44889.4844212963</v>
+        <v>44594.20555555556</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>44586.12236111111</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,32 +445,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Amoxicillin_FA</t>
+          <t>Amoxicillin_1_FA</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Amoxicillin_LA</t>
+          <t>Amoxicillin_1_LA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Cefepime_FA</t>
+          <t>Cefepime_1_FA</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cefepime_LA</t>
+          <t>Cefepime_1_LA</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Piperacillin/Tazobactam_FA</t>
+          <t>Cefepime_2_FA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Piperacillin/Tazobactam_LA</t>
+          <t>Cefepime_2_LA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cefepime_3_FA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cefepime_3_LA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Piperacillin/Tazobactam_1_FA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Piperacillin/Tazobactam_1_LA</t>
         </is>
       </c>
     </row>
@@ -488,12 +508,24 @@
         <v>44583.72480324074</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44594.20555555556</v>
+        <v>44587.80813657407</v>
       </c>
       <c r="F2" s="2" t="n">
+        <v>44592.89236111111</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44596.28888888889</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>44598.20555555556</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>44598.28888888889</v>
+      </c>
+      <c r="J2" s="2" t="n">
         <v>44586.12236111111</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>44592.60826388889</v>
       </c>
     </row>
@@ -511,6 +543,10 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -499,34 +499,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44585.82391203703</v>
+        <v>44585</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44585.84855324074</v>
+        <v>44585</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44583.72480324074</v>
+        <v>44583</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44587.80813657407</v>
+        <v>44587</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44592.89236111111</v>
+        <v>44592</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44596.28888888889</v>
+        <v>44596</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>44598.20555555556</v>
+        <v>44598</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44598.28888888889</v>
+        <v>44598</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>44586.12236111111</v>
+        <v>44586</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>44592.60826388889</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="3">

--- a/output.xlsx
+++ b/output.xlsx
@@ -498,14 +498,10 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44585</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44585</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" s="2" t="n">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44587</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -498,8 +498,12 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44585</v>
+      </c>
       <c r="D2" s="2" t="n">
         <v>44586</v>
       </c>

--- a/output.xlsx
+++ b/output.xlsx
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>44592</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -16,20 +16,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,126 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PAT_ENC_CSN_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Amoxicillin_1_FA</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Amoxicillin_1_LA</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cefepime_1_FA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cefepime_1_LA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cefepime_2_FA</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cefepime_2_LA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cefepime_3_FA</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Cefepime_3_LA</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Piperacillin/Tazobactam_1_FA</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Piperacillin/Tazobactam_1_LA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>44585</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44585</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44596</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>44598</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>44598</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>44592</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>44590</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,83 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PAT_ENC_CSN_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amoxicillin</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cefepime</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Piperacillin/Tazobactam</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total_DOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +468,11 @@
           <t>Total_DOT</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Last_Admin</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +493,9 @@
       <c r="F2" t="n">
         <v>13</v>
       </c>
+      <c r="G2" s="2" t="n">
+        <v>44598.28888888889</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -495,10 +507,13 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>44592</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,80 +440,155 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PAT_ENC_CSN_ID</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>CSN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SEX_NAME</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Age_At_Admission</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DAYS_TO_READMISSION</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Mortality from Index Culture (Days)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LOS_Days</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Admission Date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Discharge Date</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ICU_Encounter</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Index_Culture</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Polymicrobial_Infection</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Patient_Had_ID_consult</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Diagnosis_Endocarditis_This_Encounter</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Diagnosis_Osteomyelitis_This_Encounter</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Cefepime</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Piperacillin/Tazobactam</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Total_DOT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Last_Admin</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="T2" t="n">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
+      <c r="U2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44598.28888888889</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>44592</v>
+      <c r="V2" t="n">
+        <v>12</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>44598</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>44598</v>
+        <v>44598.28888888889</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,45 +510,60 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Index_Culture + 72 hrs</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Final_Result_Date</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Final_Result - Index_Culture + 72 (hrs)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Polymicrobial_Infection</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Patient_Had_ID_consult</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Diagnosis_Endocarditis_This_Encounter</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Diagnosis_Osteomyelitis_This_Encounter</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Cefepime</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Piperacillin/Tazobactam</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Total_DOT</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Last_Admin</t>
         </is>
@@ -570,24 +585,35 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
+        <v>44581.62222222222</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>44584.62222222222</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>44585.58055555556</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>23</v>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>8</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W2" t="n">
         <v>7</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>1</v>
       </c>
-      <c r="V2" t="n">
-        <v>12</v>
-      </c>
-      <c r="W2" s="2" t="n">
+      <c r="Y2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="2" t="n">
         <v>44598.28888888889</v>
       </c>
     </row>
